--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Stele.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Stele.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FUMI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE20C9A-9EA5-4C6C-92DC-347C7D57A952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD7426-EA6F-403B-B669-AC738A3CA032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="744" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これは、毛虫の一族が使う言語だな。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -221,15 +217,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>陛下がおしゃっていた「同胞の魂」とも何か関係があるかもしれんな。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どうやら、宮殿の入口はひとつしかないようだな。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ルイスさんは読めるんですか？</t>
+    <t>毛虫の一族が使う言語だな。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルイスさん読めるんですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陛下がおしゃっていた「同胞の魂」と何か関係があるかもしれんな。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -900,7 +900,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>25</v>
@@ -1065,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
@@ -1151,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
@@ -1259,21 +1259,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1437,24 +1422,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0C6F35-3ACF-483F-9DCD-D079A65F37AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,4 +1453,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Stele.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage01_Stele.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FUMI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD7426-EA6F-403B-B669-AC738A3CA032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE20C9A-9EA5-4C6C-92DC-347C7D57A952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="744" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -207,6 +207,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>これは、毛虫の一族が使う言語だな。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -217,19 +221,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>陛下がおしゃっていた「同胞の魂」とも何か関係があるかもしれんな。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>どうやら、宮殿の入口はひとつしかないようだな。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毛虫の一族が使う言語だな。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルイスさん読めるんですか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>陛下がおしゃっていた「同胞の魂」と何か関係があるかもしれんな。</t>
+    <t>ルイスさんは読めるんですか？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -900,7 +900,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>25</v>
@@ -1065,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>25</v>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
@@ -1151,7 +1151,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
@@ -1259,6 +1259,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1422,22 +1437,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0C6F35-3ACF-483F-9DCD-D079A65F37AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1453,21 +1470,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>